--- a/Run-Env/iManager/src/main/webapp/template/AdapterTranStats_Define.xlsx
+++ b/Run-Env/iManager/src/main/webapp/template/AdapterTranStats_Define.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkh\Desktop\작업\2020\2020.07.07_통계화면\v5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\업무\작업\2021\2021.08.10\통계\수정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -64,6 +64,14 @@
     <t>어댑터별 거래통계</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>평균 처리 시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 처리 시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -622,17 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -645,6 +642,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -799,13 +805,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1154,11 +1160,12 @@
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.75" style="1" customWidth="1"/>
     <col min="4" max="7" width="18.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
@@ -1167,33 +1174,36 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1206,8 +1216,10 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1228,11 +1240,17 @@
       </c>
       <c r="G6" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
